--- a/imgsolver/model_trainer/model_metric_logs/category_class_v42024-10-30.model.keras_metrics.xlsx
+++ b/imgsolver/model_trainer/model_metric_logs/category_class_v42024-10-30.model.keras_metrics.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4699355959892273</v>
+        <v>0.3201849758625031</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8119999766349792</v>
+        <v>0.8853529691696167</v>
       </c>
     </row>
   </sheetData>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5842985842985843</v>
+        <v>0.9909920876445526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4086</v>
+        <v>0.8141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4809039016065439</v>
+        <v>0.8938786714246501</v>
       </c>
       <c r="E2" t="n">
         <v>10000</v>
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2921278254091972</v>
+        <v>0.8409207161125319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3748</v>
+        <v>0.9864000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3283399036355673</v>
+        <v>0.9078693051081455</v>
       </c>
       <c r="E3" t="n">
         <v>5000</v>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1208240534521158</v>
+        <v>0.6773972602739726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.217</v>
+        <v>0.989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1552217453505007</v>
+        <v>0.8040650406504065</v>
       </c>
       <c r="E4" t="n">
         <v>2000</v>
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3761176470588236</v>
+        <v>0.8853529411764706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3761176470588236</v>
+        <v>0.8853529411764706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3761176470588236</v>
+        <v>0.8853529411764706</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3761176470588236</v>
+        <v>0.8853529411764706</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3324168210532991</v>
+        <v>0.8364366880103523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3334666666666667</v>
+        <v>0.9298333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3214885168642039</v>
+        <v>0.8686043390610673</v>
       </c>
       <c r="E6" t="n">
         <v>17000</v>
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4438395927609448</v>
+        <v>0.9099599398562429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3761176470588236</v>
+        <v>0.8853529411764706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3977165897026045</v>
+        <v>0.8874272541816495</v>
       </c>
       <c r="E7" t="n">
         <v>17000</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4086</v>
+        <v>8141</v>
       </c>
       <c r="C2" t="n">
-        <v>3792</v>
+        <v>924</v>
       </c>
       <c r="D2" t="n">
-        <v>2122</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3">
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2090</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>1874</v>
+        <v>4932</v>
       </c>
       <c r="D3" t="n">
-        <v>1036</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>749</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>434</v>
+        <v>1978</v>
       </c>
     </row>
   </sheetData>
